--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CAA8DD8-B029-45E6-8811-07A7099EEBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFADBA-34F1-4792-904C-8D3213DAC7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="660" windowWidth="17655" windowHeight="11175" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +136,38 @@
   </si>
   <si>
     <t>결과모달창 (ex 수정완료되었습니다. 창)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCustomMove.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(리스트 위에 떠있는 list, add 버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todoApi.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,12 +200,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -179,11 +229,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,20 +559,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,112 +585,195 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="6">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFADBA-34F1-4792-904C-8D3213DAC7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D84DEB-08B8-4B1D-A498-BCC7665BBD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,103 +71,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TodoIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddPage.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IndexPage.jsx</t>
+    <t>ModifyPage.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadPage.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadComponent.jsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basicLayout.jsx 
+우측 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicMenu.jsx
+상단메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexPage.jsx
+(리스트 위 버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TodoRouter.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ListPage.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModifyPage.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadPage.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicMenu.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basicLayout.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageComponent.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이징처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultModal.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과모달창 (ex 수정완료되었습니다. 창)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCustomMove.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddComponent.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListComponent.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModifyComponent.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReadComponent.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(리스트 위에 떠있는 list, add 버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>todoApi.jsx</t>
+  </si>
+  <si>
+    <t>todoApi.jsx
+useCustomMove.jsx(페이지이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageComponent.jsx(페이징처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultModal.jsx(결과모달창)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,26 +194,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,221 +582,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C9"/>
+  <mergeCells count="17">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C12"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="D5:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D84DEB-08B8-4B1D-A498-BCC7665BBD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291E752-C2B0-4924-B280-7E5C4DFFE800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="6420" yWindow="105" windowWidth="17655" windowHeight="11175" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,25 +248,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +585,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,193 +602,186 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C12"/>
@@ -799,6 +792,13 @@
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="E5:E12"/>
     <mergeCell ref="D5:D12"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6291E752-C2B0-4924-B280-7E5C4DFFE800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDA9A3-E3C5-4C02-97CB-3A6A371DE2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="105" windowWidth="17655" windowHeight="11175" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="4245" yWindow="420" windowWidth="11985" windowHeight="13140" activeTab="1" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="리액트" sheetId="1" r:id="rId1"/>
+    <sheet name="백엔드" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">리액트!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">백엔드!$B$1:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +141,79 @@
   </si>
   <si>
     <t>ResultModal.jsx(결과모달창)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@entity가 적힌 java ex:Todo.java를 기준으로 entity변환 혹은 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot에서 자동처리되는 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스에서 타입변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TodoController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TodoService
+TodoServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TodoRepository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -231,13 +306,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,9 +448,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,7 +466,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -283,6 +508,390 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DA7421-FB1D-294E-3AED-6E923B46BDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1295400" y="561975"/>
+          <a:ext cx="847725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF565EE-870D-47A5-88EE-A8E582AE967F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2619375" y="590550"/>
+          <a:ext cx="847725" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A350A776-89A8-4FF9-86B4-F37525D909FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="676275"/>
+          <a:ext cx="666750" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4679A82-3F23-4158-9C21-853D2BD346DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2619375" y="1162050"/>
+          <a:ext cx="771525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC9377E-8858-46B1-8C29-79A2B3421892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1400175" y="1171575"/>
+          <a:ext cx="647700" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF875291-9F77-458A-95EE-6CC469A053B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4152900" y="1047750"/>
+          <a:ext cx="704850" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719BBEB7-08D5-DB76-3690-AF66C56ED975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="923925"/>
+          <a:ext cx="3924300" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,82 +1211,82 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -685,27 +1294,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -713,27 +1322,27 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -741,23 +1350,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -769,19 +1378,21 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C12"/>
@@ -797,11 +1408,172 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15A43A-C99F-42F6-8838-5B8DB14B0367}">
+  <dimension ref="B1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="6" width="15.625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="15"/>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="15"/>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="15"/>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:15" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDA9A3-E3C5-4C02-97CB-3A6A371DE2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224BB6E-0BE4-4768-825F-361CE455949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="420" windowWidth="11985" windowHeight="13140" activeTab="1" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="리액트" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@entity가 적힌 java ex:Todo.java를 기준으로 entity변환 혹은 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,46 @@
   </si>
   <si>
     <t>TodoRepository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get은 가져오기만 하는것이니 1-&gt;2X, 3-&gt;4 로 바꿔주는 코드만 서비스단에 있으면됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list도 가져오기만 하는것이니 1-&gt;2X, 3-&gt;4 로 바꿔주는 코드만 서비스단에 있으면됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read : ListComponent 클릭시 useCustomMove의 moveToRead메서드 실행되며, 메서드내부에서 네비게이트로 주소이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify : readComponent 버튼 클릭시 useCustomMove의 moveToModify메서드 실행되며, 메서드 내부에서 네비게이트로 주소이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list : readComponent 버튼 클릭시 useCustomMove의 moveToList메서드 실행되며, 메서드 내부에서 네비게이트로 주소이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +483,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,32 +525,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,13 +552,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -567,13 +605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -620,13 +658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -673,13 +711,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -726,13 +764,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -779,13 +817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -832,13 +870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1193,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1207,86 +1245,96 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="31.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>18</v>
       </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1294,27 +1342,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1322,27 +1370,27 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1350,23 +1398,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1378,24 +1426,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C12"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -1405,9 +1448,14 @@
     <mergeCell ref="D5:D12"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,157 +1465,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15A43A-C99F-42F6-8838-5B8DB14B0367}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="19"/>
-    <col min="3" max="6" width="15.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="6" width="15.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="15"/>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
+    <row r="4" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="15"/>
-      <c r="I4" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="20"/>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+    <row r="5" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="15"/>
-      <c r="O5" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="20"/>
+      <c r="P5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+    <row r="6" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-      <c r="I6" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="20"/>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+    <row r="7" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="20"/>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="20"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:15" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I12" s="5" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:16" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224BB6E-0BE4-4768-825F-361CE455949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8682A9EB-A569-4B3F-B421-0305008E5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="리액트" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TodoController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,14 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list도 가져오기만 하는것이니 1-&gt;2X, 3-&gt;4 로 바꿔주는 코드만 서비스단에 있으면됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>read : ListComponent 클릭시 useCustomMove의 moveToRead메서드 실행되며, 메서드내부에서 네비게이트로 주소이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +234,50 @@
   </si>
   <si>
     <t>list : readComponent 버튼 클릭시 useCustomMove의 moveToList메서드 실행되며, 메서드 내부에서 네비게이트로 주소이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post는 입력값을 주고 tno를 받아오는데
+입력값을 줄때는 1-&gt;2 변환이 필요하지만
+tno를 받는것은 get메서드로 되기에 3-&gt;4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put은 tno를 주고 받아온 엔티티값을 수정함
+입력값을 줄때도 tno한개만 주기에 메서드로 처리하고, 가져온값 수정도 메서드로 처리되기에 modelmapper 사용 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete 또한 tno값을 주기만하고 메서드로 처리하기에 modelmapper는 필요없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list도 가져오기만 하는것이니 1-&gt;2X, 3-&gt;4 로 바꿔주는 코드만 서비스단에 있으면됨
+페이징 : PageRequestDTO,PageResponseDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MallapiApplication.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +542,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,8 +563,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,13 +590,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -605,13 +643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -658,13 +696,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -711,13 +749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -764,13 +802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -817,13 +855,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -870,13 +908,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1231,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1250,91 +1288,91 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1342,27 +1380,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1370,27 +1408,27 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1398,23 +1436,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,19 +1464,20 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -1455,7 +1494,6 @@
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,20 +1503,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15A43A-C99F-42F6-8838-5B8DB14B0367}">
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="14"/>
     <col min="3" max="6" width="15.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="50.75" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
         <v>32</v>
@@ -1492,156 +1531,208 @@
       <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="20"/>
-      <c r="J4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="20"/>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20"/>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="20"/>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="20"/>
-      <c r="J9" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="K9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:16" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J12" s="5" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/구조.xlsx
+++ b/구조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8682A9EB-A569-4B3F-B421-0305008E5416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE92BF9F-D645-4E3D-B38C-9F7D7B46FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="리액트" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>ModifyPage.jsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -278,6 +274,20 @@
   </si>
   <si>
     <t>MallapiApplication.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footer.jsx
+하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageConstants.jsx (페이징 사이즈 지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo/products
+폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -490,13 +500,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,27 +582,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,206 +1325,224 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="31.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="24"/>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="I3" s="25"/>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="25"/>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="G6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
     <mergeCell ref="E5:E12"/>
     <mergeCell ref="D5:D12"/>
     <mergeCell ref="F10:F11"/>
@@ -1493,7 +1553,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B13"/>
-    <mergeCell ref="C3:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15A43A-C99F-42F6-8838-5B8DB14B0367}">
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1520,150 +1579,144 @@
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="H2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
-        <v>49</v>
+      <c r="H4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
-        <v>50</v>
+      <c r="H5" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
-        <v>55</v>
+      <c r="H6" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,13 +1725,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="16"/>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,8 +1739,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -1696,10 +1747,9 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="16"/>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,8 +1758,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11"/>
@@ -1717,22 +1766,21 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/구조.xlsx
+++ b/구조.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GIT\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE92BF9F-D645-4E3D-B38C-9F7D7B46FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCFCE7-982B-47BD-B3B3-6F980A4480EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
+    <workbookView xWindow="6180" yWindow="6645" windowWidth="20205" windowHeight="13095" activeTab="2" xr2:uid="{9DD572A8-5AF6-4191-AC26-81DE3BDAA7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="리액트" sheetId="1" r:id="rId1"/>
     <sheet name="백엔드" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">리액트!$A$1:$H$13</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>main.jsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +289,18 @@
   <si>
     <t>todo/products
 폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginslice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +597,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,21 +616,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1311,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E74F87-8DD6-414F-B904-B629E1B943E5}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:H13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1331,185 +1338,182 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="J2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="14"/>
       <c r="J4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,23 +1523,23 @@
       <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="24"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B13"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D13:H13"/>
@@ -1552,7 +1556,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,4 +1792,31 @@
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D60C129-B941-46DC-BE71-BE2899090F05}">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>